--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Gpha2</t>
+  </si>
+  <si>
+    <t>Tshr</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Gpha2</t>
-  </si>
-  <si>
-    <t>Tshr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -531,7 +531,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01886266666666667</v>
+        <v>0.1029686666666667</v>
       </c>
       <c r="H2">
-        <v>0.056588</v>
+        <v>0.308906</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N2">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q2">
-        <v>0.009785297560888888</v>
+        <v>0.06371591260088888</v>
       </c>
       <c r="R2">
-        <v>0.08806767804799999</v>
+        <v>0.5734432134080001</v>
       </c>
       <c r="S2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="T2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +602,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01886266666666667</v>
+        <v>0.1029686666666667</v>
       </c>
       <c r="H3">
-        <v>0.056588</v>
+        <v>0.308906</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,25 +623,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P3">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q3">
-        <v>0.04213888924311111</v>
+        <v>0.2300303195117778</v>
       </c>
       <c r="R3">
-        <v>0.379250003188</v>
+        <v>2.070272875606</v>
       </c>
       <c r="S3">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="T3">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01886266666666667</v>
+        <v>0.1029686666666667</v>
       </c>
       <c r="H4">
-        <v>0.056588</v>
+        <v>0.308906</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N4">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q4">
-        <v>0.002544969849333333</v>
+        <v>0.02133078304933334</v>
       </c>
       <c r="R4">
-        <v>0.022904728644</v>
+        <v>0.191977047444</v>
       </c>
       <c r="S4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="T4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01886266666666667</v>
+        <v>0.1029686666666667</v>
       </c>
       <c r="H5">
-        <v>0.056588</v>
+        <v>0.308906</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N5">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O5">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P5">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q5">
-        <v>0.003172725683555556</v>
+        <v>0.01946032289644445</v>
       </c>
       <c r="R5">
-        <v>0.028554531152</v>
+        <v>0.175142906068</v>
       </c>
       <c r="S5">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="T5">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01886266666666667</v>
+        <v>0.1029686666666667</v>
       </c>
       <c r="H6">
-        <v>0.056588</v>
+        <v>0.308906</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N6">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O6">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P6">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q6">
-        <v>0.002730515613777778</v>
+        <v>0.02645230723777778</v>
       </c>
       <c r="R6">
-        <v>0.024574640524</v>
+        <v>0.23807076514</v>
       </c>
       <c r="S6">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="T6">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
     </row>
   </sheetData>
